--- a/statistics/HistoricalDistanceData/historical_distance/Q23018267-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q23018267-en.xlsx
@@ -31,25 +31,25 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Scott Copeland wins Idaho Constitution Party primary</t>
+  </si>
+  <si>
     <t>Patrick Ockander drops out of Constitution Party presidential race, endorses J.R. Myers and Ted Cruz</t>
   </si>
   <si>
-    <t>Scott Copeland wins Idaho Constitution Party primary</t>
+    <t>2016-03-10T05:27:46UTC</t>
   </si>
   <si>
     <t>2016-03-02T05:25:41UTC</t>
   </si>
   <si>
-    <t>2016-03-10T05:27:46UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://thegrandinquirer.com/2016/03/09/scott-copeland-wins-idaho-constitution-party-primary/</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20161126141435/https://thegrandinquirer.com/2016/03/01/patrick-ockander-drops-out-of-constitution-party-presidential-race-endorses-j-r-myers-and-ted-cruz/</t>
-  </si>
-  <si>
-    <t>https://thegrandinquirer.com/2016/03/09/scott-copeland-wins-idaho-constitution-party-primary/</t>
   </si>
 </sst>
 </file>
